--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2498250.162350327</v>
+        <v>2613836.288672807</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12453847.07671752</v>
+        <v>12448913.88118193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9066086.605561381</v>
+        <v>9067090.198612161</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63.93308893378695</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>213.2445435269807</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>213.2445435269807</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.0513599977941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.597273863535397</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>213.2445435269807</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>114.8709364571239</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.15708667076388</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>60.41847648788897</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X4" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.2905114143477</v>
       </c>
       <c r="F5" t="n">
-        <v>320.2362084475281</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>320.2362084475281</v>
+        <v>290.2905114143477</v>
       </c>
       <c r="H5" t="n">
-        <v>133.7536441571931</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3104082433896</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>320.2362084475281</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>290.2905114143477</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>248.8118367120459</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>87.31022827224227</v>
       </c>
       <c r="G6" t="n">
-        <v>111.8775004434426</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.46855978255019</v>
+        <v>99.00406368337434</v>
       </c>
       <c r="I6" t="n">
-        <v>40.31850253194264</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.65464780838174</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2059886958167</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>127.0246976814421</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.868952140436122</v>
+        <v>12.15545075340498</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.7379977059021</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>362.6437744116295</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>113.9041055112783</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>87.72706807883721</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>185.7059620176638</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.307475200959</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>176.839462319124</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>80.089713111587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4312223122543</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>221.3548198009121</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459371</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>35.66650366117342</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969889</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>144.719340605582</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.41770597126702</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>114.2173032139414</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>153.0598676525411</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,13 +3319,13 @@
         <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>70.40964990483353</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>154.4892550148508</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>81.88270281562022</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042189</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>38.2187527515831</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>663.2551499275545</v>
+        <v>345.9866426825726</v>
       </c>
       <c r="C2" t="n">
-        <v>663.2551499275545</v>
+        <v>103.7563920345882</v>
       </c>
       <c r="D2" t="n">
-        <v>663.2551499275545</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="E2" t="n">
-        <v>663.2551499275545</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F2" t="n">
-        <v>447.8566211124225</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4580922972905</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>813.5133472948969</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>924.2476725444229</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="S2" t="n">
-        <v>847.1454125515889</v>
+        <v>803.0167550628458</v>
       </c>
       <c r="T2" t="n">
-        <v>847.1454125515889</v>
+        <v>588.2168933305569</v>
       </c>
       <c r="U2" t="n">
-        <v>847.1454125515889</v>
+        <v>345.9866426825726</v>
       </c>
       <c r="V2" t="n">
-        <v>847.1454125515889</v>
+        <v>345.9866426825726</v>
       </c>
       <c r="W2" t="n">
-        <v>847.1454125515889</v>
+        <v>345.9866426825726</v>
       </c>
       <c r="X2" t="n">
-        <v>847.1454125515889</v>
+        <v>345.9866426825726</v>
       </c>
       <c r="Y2" t="n">
-        <v>663.2551499275545</v>
+        <v>345.9866426825726</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>313.788097581247</v>
+        <v>24.83844783468945</v>
       </c>
       <c r="C3" t="n">
-        <v>313.788097581247</v>
+        <v>24.83844783468945</v>
       </c>
       <c r="D3" t="n">
-        <v>313.788097581247</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>154.5506425757915</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>154.5506425757915</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>49.58400458051115</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3290061694342</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>235.9860749520332</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>403.145768365604</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>589.1383263803878</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R3" t="n">
-        <v>852.9781741079227</v>
+        <v>938.1198929682046</v>
       </c>
       <c r="S3" t="n">
-        <v>852.9781741079227</v>
+        <v>938.1198929682046</v>
       </c>
       <c r="T3" t="n">
-        <v>852.9781741079227</v>
+        <v>938.1198929682046</v>
       </c>
       <c r="U3" t="n">
-        <v>637.5796452927907</v>
+        <v>709.9811054793704</v>
       </c>
       <c r="V3" t="n">
-        <v>521.5483963462009</v>
+        <v>474.8289972476277</v>
       </c>
       <c r="W3" t="n">
-        <v>521.5483963462009</v>
+        <v>232.5987465996434</v>
       </c>
       <c r="X3" t="n">
-        <v>521.5483963462009</v>
+        <v>232.5987465996434</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.788097581247</v>
+        <v>24.83844783468945</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.1523523484779</v>
+        <v>344.2933299894518</v>
       </c>
       <c r="C4" t="n">
-        <v>361.1523523484779</v>
+        <v>344.2933299894518</v>
       </c>
       <c r="D4" t="n">
-        <v>361.1523523484779</v>
+        <v>344.2933299894518</v>
       </c>
       <c r="E4" t="n">
-        <v>361.1523523484779</v>
+        <v>196.3802364070586</v>
       </c>
       <c r="F4" t="n">
-        <v>361.1523523484779</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="G4" t="n">
-        <v>192.5038560826958</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="H4" t="n">
-        <v>37.87889540591735</v>
+        <v>143.6963104769941</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>17.05956348215845</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>195.82338068234</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>394.6938844777624</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>594.2703086122145</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>762.5951431661857</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R4" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7538312854205</v>
       </c>
       <c r="S4" t="n">
-        <v>791.9494099787419</v>
+        <v>828.7538312854205</v>
       </c>
       <c r="T4" t="n">
-        <v>576.5508811636099</v>
+        <v>828.7538312854205</v>
       </c>
       <c r="U4" t="n">
-        <v>576.5508811636099</v>
+        <v>586.5235806374361</v>
       </c>
       <c r="V4" t="n">
-        <v>576.5508811636099</v>
+        <v>586.5235806374361</v>
       </c>
       <c r="W4" t="n">
-        <v>576.5508811636099</v>
+        <v>344.2933299894518</v>
       </c>
       <c r="X4" t="n">
-        <v>361.1523523484779</v>
+        <v>344.2933299894518</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.1523523484779</v>
+        <v>344.2933299894518</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>807.6654229912057</v>
+        <v>616.6142192670943</v>
       </c>
       <c r="C5" t="n">
-        <v>807.6654229912057</v>
+        <v>616.6142192670943</v>
       </c>
       <c r="D5" t="n">
-        <v>807.6654229912057</v>
+        <v>616.6142192670943</v>
       </c>
       <c r="E5" t="n">
-        <v>807.6654229912057</v>
+        <v>323.3914804647228</v>
       </c>
       <c r="F5" t="n">
-        <v>484.1945053674399</v>
+        <v>316.4459797155193</v>
       </c>
       <c r="G5" t="n">
-        <v>160.7235877436741</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="H5" t="n">
-        <v>25.61889667580225</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="I5" t="n">
-        <v>25.61889667580225</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="J5" t="n">
-        <v>70.23995380345463</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8538698679749</v>
+        <v>163.700268344496</v>
       </c>
       <c r="L5" t="n">
-        <v>370.6660947378281</v>
+        <v>330.3223409084646</v>
       </c>
       <c r="M5" t="n">
-        <v>605.7493564943271</v>
+        <v>547.3909387162878</v>
       </c>
       <c r="N5" t="n">
-        <v>849.2503195768627</v>
+        <v>772.5857417537064</v>
       </c>
       <c r="O5" t="n">
-        <v>1065.84611289387</v>
+        <v>971.8955472416937</v>
       </c>
       <c r="P5" t="n">
-        <v>1216.204610510198</v>
+        <v>1107.500854171416</v>
       </c>
       <c r="Q5" t="n">
-        <v>1280.944833790112</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="R5" t="n">
-        <v>1280.944833790112</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="S5" t="n">
-        <v>1131.136340614971</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="T5" t="n">
-        <v>1131.136340614971</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="U5" t="n">
-        <v>1131.136340614971</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="V5" t="n">
-        <v>1131.136340614971</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="W5" t="n">
-        <v>807.6654229912057</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="X5" t="n">
-        <v>807.6654229912057</v>
+        <v>867.9393068550195</v>
       </c>
       <c r="Y5" t="n">
-        <v>807.6654229912057</v>
+        <v>616.6142192670943</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425.3499826872359</v>
+        <v>360.3539050750219</v>
       </c>
       <c r="C6" t="n">
-        <v>425.3499826872359</v>
+        <v>360.3539050750219</v>
       </c>
       <c r="D6" t="n">
-        <v>425.3499826872359</v>
+        <v>211.4194954137707</v>
       </c>
       <c r="E6" t="n">
-        <v>425.3499826872359</v>
+        <v>211.4194954137707</v>
       </c>
       <c r="F6" t="n">
-        <v>278.8154247141209</v>
+        <v>123.227345643829</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8078485086233</v>
+        <v>123.227345643829</v>
       </c>
       <c r="H6" t="n">
-        <v>66.34465680907765</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="I6" t="n">
-        <v>25.61889667580225</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="J6" t="n">
-        <v>158.2071706462004</v>
+        <v>25.79522430508951</v>
       </c>
       <c r="K6" t="n">
-        <v>284.8607696380055</v>
+        <v>108.3459783063298</v>
       </c>
       <c r="L6" t="n">
-        <v>454.1017060190928</v>
+        <v>265.6681956119418</v>
       </c>
       <c r="M6" t="n">
-        <v>670.954764368825</v>
+        <v>553.0558019121461</v>
       </c>
       <c r="N6" t="n">
-        <v>907.9559228224081</v>
+        <v>818.7226619044731</v>
       </c>
       <c r="O6" t="n">
-        <v>1102.54588567413</v>
+        <v>1000.252231792104</v>
       </c>
       <c r="P6" t="n">
-        <v>1239.388419973523</v>
+        <v>1126.612649313231</v>
       </c>
       <c r="Q6" t="n">
-        <v>1280.944833790112</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="R6" t="n">
-        <v>1269.172462266494</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="S6" t="n">
-        <v>1122.499746412134</v>
+        <v>1161.162045657391</v>
       </c>
       <c r="T6" t="n">
-        <v>1122.499746412134</v>
+        <v>964.5533181196714</v>
       </c>
       <c r="U6" t="n">
-        <v>1122.499746412134</v>
+        <v>736.4207423006228</v>
       </c>
       <c r="V6" t="n">
-        <v>887.3476381803914</v>
+        <v>736.4207423006228</v>
       </c>
       <c r="W6" t="n">
-        <v>633.1102814521898</v>
+        <v>736.4207423006228</v>
       </c>
       <c r="X6" t="n">
-        <v>633.1102814521898</v>
+        <v>528.56924209509</v>
       </c>
       <c r="Y6" t="n">
-        <v>425.3499826872359</v>
+        <v>528.56924209509</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.69407360373</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="C7" t="n">
-        <v>184.69407360373</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="D7" t="n">
-        <v>34.57743419139429</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="E7" t="n">
-        <v>34.57743419139429</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="F7" t="n">
-        <v>34.57743419139429</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="G7" t="n">
-        <v>34.57743419139429</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="H7" t="n">
-        <v>34.57743419139429</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="I7" t="n">
-        <v>34.57743419139429</v>
+        <v>35.50147399739527</v>
       </c>
       <c r="J7" t="n">
-        <v>25.61889667580225</v>
+        <v>23.22324091314782</v>
       </c>
       <c r="K7" t="n">
-        <v>141.0270647162226</v>
+        <v>133.2846894279151</v>
       </c>
       <c r="L7" t="n">
-        <v>344.236220769344</v>
+        <v>329.6518852993047</v>
       </c>
       <c r="M7" t="n">
-        <v>568.8809068957703</v>
+        <v>547.0826837277</v>
       </c>
       <c r="N7" t="n">
-        <v>793.6186609135253</v>
+        <v>764.7780801730513</v>
       </c>
       <c r="O7" t="n">
-        <v>985.1840560939797</v>
+        <v>949.8387182967879</v>
       </c>
       <c r="P7" t="n">
-        <v>1125.58066338663</v>
+        <v>1084.66938219591</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139.348916790961</v>
+        <v>1094.584064899866</v>
       </c>
       <c r="R7" t="n">
-        <v>1139.348916790961</v>
+        <v>967.6652614208783</v>
       </c>
       <c r="S7" t="n">
-        <v>1139.348916790961</v>
+        <v>967.6652614208783</v>
       </c>
       <c r="T7" t="n">
-        <v>956.7852827445948</v>
+        <v>742.374278272822</v>
       </c>
       <c r="U7" t="n">
-        <v>956.7852827445948</v>
+        <v>453.226419470156</v>
       </c>
       <c r="V7" t="n">
-        <v>702.100794538708</v>
+        <v>453.226419470156</v>
       </c>
       <c r="W7" t="n">
-        <v>412.6836245017474</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="X7" t="n">
-        <v>184.69407360373</v>
+        <v>163.8092494331954</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.69407360373</v>
+        <v>163.8092494331954</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974333</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974333</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974333</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2447.284676368561</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2447.284676368561</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>2094.516021098447</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.050262837367</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.910930861555</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360656</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>859.5709967387894</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>690.6348138108825</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>540.5181743985468</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>392.6050808161536</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>245.7151333182433</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1252.235592418536</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387894</v>
+        <v>1252.235592418536</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387894</v>
+        <v>962.8184223815755</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387894</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.5709967387894</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.8230468926974</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2201.291660318396</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1981.690195341337</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1692.614968685535</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1437.930480479648</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1148.513310442687</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>920.5237595446702</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797217</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,13 +5293,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589157</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5509,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687904</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>904.461687384549</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.840175011101</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>2944.624395303955</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>2949.802511644063</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>2799.685872231727</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2651.772778649334</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2504.882831151423</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U25" t="n">
-        <v>1941.434309135586</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V25" t="n">
-        <v>1686.749820929699</v>
+        <v>3749.169289443756</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.332650892738</v>
+        <v>3749.169289443756</v>
       </c>
       <c r="X25" t="n">
-        <v>1169.343099994721</v>
+        <v>3521.179738545739</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.5505208511906</v>
+        <v>3300.387159402209</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2411.187623003223</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,13 +6463,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2042.456618565808</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1753.381391910006</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1498.696903704119</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2125.941686997836</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650331</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>4065.281396788588</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>3810.596908582701</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675049</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>862.3241387471426</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,22 +7730,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.358282821086</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.73304569970175</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923431</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>9.465878650759677</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>104.5749857341995</v>
+        <v>77.96696197637755</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.23267925886438</v>
+        <v>54.7423662450677</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>35.59481005502214</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>85.2960918604964</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>43.376164985521</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>199.7516311504065</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.52450498097832</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.52575990662535</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.98982571067691</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.16817853567889</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.199738306157656</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>70.88187642683914</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.11263957635529</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>30.95754073885467</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>253.7123957233518</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.20374480898985</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>64.34558267474713</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>146.9958004224547</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>131.6952193743933</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>66.73277020259214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.15649395853859</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>795378.4264073592</v>
+        <v>796805.8680496748</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>798715.6864677516</v>
+        <v>798274.883932555</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>118433.6817166244</v>
+        <v>55881.32342211118</v>
       </c>
       <c r="D3" t="n">
-        <v>331901.1145227998</v>
+        <v>363279.8866276225</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657331</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>27536.23081727145</v>
+        <v>12992.59634440513</v>
       </c>
       <c r="L3" t="n">
-        <v>81077.35350883761</v>
+        <v>88656.33991666217</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269041.6482059987</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>237201.8650125499</v>
+        <v>246054.6603431034</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26436,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,10 +26447,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="M4" t="n">
         <v>12996.86414683048</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12996.86414683047</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993008</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>67545.06256179276</v>
+        <v>65162.40123302713</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292550.3280577085</v>
+        <v>-317621.538329062</v>
       </c>
       <c r="C6" t="n">
-        <v>233652.80660046</v>
+        <v>289735.0308931854</v>
       </c>
       <c r="D6" t="n">
-        <v>88043.43494596402</v>
+        <v>56664.66284114076</v>
       </c>
       <c r="E6" t="n">
-        <v>24112.44415672174</v>
+        <v>24112.44415672138</v>
       </c>
       <c r="F6" t="n">
+        <v>531597.8857812675</v>
+      </c>
+      <c r="G6" t="n">
         <v>531597.8857812673</v>
-      </c>
-      <c r="G6" t="n">
-        <v>531597.8857812674</v>
       </c>
       <c r="H6" t="n">
         <v>531597.8857812674</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812674</v>
+        <v>531597.8857812675</v>
       </c>
       <c r="J6" t="n">
-        <v>475803.7304346937</v>
+        <v>468853.5749977314</v>
       </c>
       <c r="K6" t="n">
-        <v>504061.6549639962</v>
+        <v>518605.2894368624</v>
       </c>
       <c r="L6" t="n">
-        <v>450520.5322724297</v>
+        <v>442941.5458646053</v>
       </c>
       <c r="M6" t="n">
-        <v>398990.5920523407</v>
+        <v>398990.5920523406</v>
       </c>
       <c r="N6" t="n">
+        <v>531597.8857812672</v>
+      </c>
+      <c r="O6" t="n">
+        <v>531597.8857812675</v>
+      </c>
+      <c r="P6" t="n">
         <v>531597.8857812673</v>
-      </c>
-      <c r="O6" t="n">
-        <v>531597.8857812674</v>
-      </c>
-      <c r="P6" t="n">
-        <v>531597.8857812674</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>662.7110590909653</v>
+        <v>636.9329421575591</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>320.2362084475281</v>
+        <v>290.2905114143477</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>92.10150113272425</v>
+        <v>43.45684181949446</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3538330265741</v>
+        <v>297.13194995998</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9916649205474</v>
+        <v>50.48256327284328</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3486236525108</v>
+        <v>350.294320685691</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269806</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205474</v>
+        <v>50.48256327284328</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525105</v>
+        <v>350.2943206856908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205474</v>
+        <v>50.48256327284328</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525108</v>
+        <v>350.294320685691</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295031</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>290.749952686896</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>193.6315022147308</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>199.764286217468</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>102.7377756322444</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1621402861816</v>
+        <v>11.34683808079618</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.1865786582595</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>141.8477917011033</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>12.61609191843402</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>117.9296506923014</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941515</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.26396135216737</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>145.6660146211169</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>10.30454602850783</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2629038261999</v>
+        <v>46.45270651659253</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508655</v>
       </c>
       <c r="X4" t="n">
-        <v>12.46511186205649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791403</v>
       </c>
       <c r="F5" t="n">
-        <v>86.63983729418334</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.40236400593471</v>
+        <v>122.4516916599529</v>
       </c>
       <c r="H5" t="n">
-        <v>178.4367775207234</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>107.7656660302875</v>
+        <v>111.7608855401374</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4334670066612</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1325197029027</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>29.00476026988491</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>79.44058926412129</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>137.4261019440077</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>57.75898412114161</v>
       </c>
       <c r="G6" t="n">
-        <v>24.04056274361008</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.22754232370905</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790342</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4191488523254</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8476022141223</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7959266289505</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6020673305385</v>
+        <v>24.99066470419262</v>
       </c>
       <c r="I7" t="n">
-        <v>119.5119801162269</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.5594750121873</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>203.1900881963595</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
-        <v>42.10145733266208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2538446621541</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>2.629117359378029</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>137.1411446171837</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78.57953196596698</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>100.5211921035368</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29038,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.66416506167222</v>
+        <v>2.560534440834406</v>
       </c>
       <c r="H5" t="n">
-        <v>27.28438043785063</v>
+        <v>26.22307334219537</v>
       </c>
       <c r="I5" t="n">
-        <v>102.7102235401184</v>
+        <v>98.71500403026855</v>
       </c>
       <c r="J5" t="n">
-        <v>226.1176794031028</v>
+        <v>217.3221599977694</v>
       </c>
       <c r="K5" t="n">
-        <v>338.8917864636879</v>
+        <v>325.7095828782899</v>
       </c>
       <c r="L5" t="n">
-        <v>420.4252279698392</v>
+        <v>404.071538771976</v>
       </c>
       <c r="M5" t="n">
-        <v>467.8040733853526</v>
+        <v>449.6074431341648</v>
       </c>
       <c r="N5" t="n">
-        <v>475.3736323668288</v>
+        <v>456.8825616141856</v>
       </c>
       <c r="O5" t="n">
-        <v>448.8818410348256</v>
+        <v>431.4212472681384</v>
       </c>
       <c r="P5" t="n">
-        <v>383.1102660747926</v>
+        <v>368.208053260039</v>
       </c>
       <c r="Q5" t="n">
-        <v>287.6998548036561</v>
+        <v>276.5089135976567</v>
       </c>
       <c r="R5" t="n">
-        <v>167.3528585552677</v>
+        <v>160.8431715690644</v>
       </c>
       <c r="S5" t="n">
-        <v>60.70966134285577</v>
+        <v>58.34817857051409</v>
       </c>
       <c r="T5" t="n">
-        <v>11.66238255747015</v>
+        <v>11.20873951475262</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2131332049337776</v>
+        <v>0.2048427552667525</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.425453976157925</v>
+        <v>1.370006705772863</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76688445394628</v>
+        <v>13.23138055312213</v>
       </c>
       <c r="I6" t="n">
-        <v>49.07813031947244</v>
+        <v>47.16909052770603</v>
       </c>
       <c r="J6" t="n">
-        <v>134.6741407913065</v>
+        <v>129.43558968883</v>
       </c>
       <c r="K6" t="n">
-        <v>230.1795571938875</v>
+        <v>221.2260389756118</v>
       </c>
       <c r="L6" t="n">
-        <v>309.5048205688513</v>
+        <v>297.4657103916035</v>
       </c>
       <c r="M6" t="n">
-        <v>361.177527204576</v>
+        <v>347.1284534758697</v>
       </c>
       <c r="N6" t="n">
-        <v>370.7368216324071</v>
+        <v>356.3159107264254</v>
       </c>
       <c r="O6" t="n">
-        <v>339.1517624764867</v>
+        <v>325.9594463511425</v>
       </c>
       <c r="P6" t="n">
-        <v>272.1991895349287</v>
+        <v>261.6111927892057</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.9579496583345</v>
+        <v>174.8801542316378</v>
       </c>
       <c r="R6" t="n">
-        <v>88.50318634426139</v>
+        <v>85.06059178473971</v>
       </c>
       <c r="S6" t="n">
-        <v>26.47718240802109</v>
+        <v>25.4472736795968</v>
       </c>
       <c r="T6" t="n">
-        <v>5.745579842496197</v>
+        <v>5.522088432479213</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09377986685249512</v>
+        <v>0.09013202011663575</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.195052729508298</v>
+        <v>1.148567600611992</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62510517690106</v>
+        <v>10.21181012180481</v>
       </c>
       <c r="I7" t="n">
-        <v>35.93849481103137</v>
+        <v>34.54056020749518</v>
       </c>
       <c r="J7" t="n">
-        <v>84.49022797623665</v>
+        <v>81.2037293632678</v>
       </c>
       <c r="K7" t="n">
-        <v>138.8433989374186</v>
+        <v>133.4426721438296</v>
       </c>
       <c r="L7" t="n">
-        <v>177.6717485307155</v>
+        <v>170.7606776400774</v>
       </c>
       <c r="M7" t="n">
-        <v>187.3299474082871</v>
+        <v>180.0431921577506</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8756599619381</v>
+        <v>175.7621674645606</v>
       </c>
       <c r="O7" t="n">
-        <v>168.9152712581366</v>
+        <v>162.3448095846841</v>
       </c>
       <c r="P7" t="n">
-        <v>144.5361955761672</v>
+        <v>138.9140305321994</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.0693699227357</v>
+        <v>96.17687426579141</v>
       </c>
       <c r="R7" t="n">
-        <v>53.73391636498218</v>
+        <v>51.6437759329719</v>
       </c>
       <c r="S7" t="n">
-        <v>20.82650984061278</v>
+        <v>20.01640082157443</v>
       </c>
       <c r="T7" t="n">
-        <v>5.106134389717272</v>
+        <v>4.907516111705781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06518469433681633</v>
+        <v>0.06264914185156326</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31843,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107751</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226606</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>755.4040473746018</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,25 +33973,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,7 +34450,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.85297080641686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.34848645345761</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8712707220038</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4212715042414</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>89.75123316395839</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>180.5695123234157</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>170.0250854080517</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>91.29599085023933</v>
+        <v>69.67512249932187</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.0717748764165</v>
+        <v>36.27625547108312</v>
       </c>
       <c r="K5" t="n">
-        <v>118.8019354187074</v>
+        <v>105.6197318333093</v>
       </c>
       <c r="L5" t="n">
-        <v>184.658812999852</v>
+        <v>168.3051238019887</v>
       </c>
       <c r="M5" t="n">
-        <v>237.4578401580798</v>
+        <v>219.261209906892</v>
       </c>
       <c r="N5" t="n">
-        <v>245.9605687702379</v>
+        <v>227.4694980175947</v>
       </c>
       <c r="O5" t="n">
-        <v>218.7836296131389</v>
+        <v>201.3230358464517</v>
       </c>
       <c r="P5" t="n">
-        <v>151.8772703195231</v>
+        <v>136.9750575047694</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.39416492920665</v>
+        <v>54.20322372320723</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>133.9275494650486</v>
+        <v>2.597963022163327</v>
       </c>
       <c r="K6" t="n">
-        <v>127.9329282745506</v>
+        <v>83.38460000125283</v>
       </c>
       <c r="L6" t="n">
-        <v>170.9504407889771</v>
+        <v>158.9113306117293</v>
       </c>
       <c r="M6" t="n">
-        <v>219.0434932825577</v>
+        <v>290.2905114143477</v>
       </c>
       <c r="N6" t="n">
-        <v>239.3951095490738</v>
+        <v>268.3503636286131</v>
       </c>
       <c r="O6" t="n">
-        <v>196.5555180320423</v>
+        <v>183.3632019066981</v>
       </c>
       <c r="P6" t="n">
-        <v>138.2247821205985</v>
+        <v>127.6367853748755</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.97617557231297</v>
+        <v>34.89838014561624</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5739071115357</v>
+        <v>111.1731803179467</v>
       </c>
       <c r="L7" t="n">
-        <v>205.2617737910317</v>
+        <v>198.3507029003935</v>
       </c>
       <c r="M7" t="n">
-        <v>226.9138243701277</v>
+        <v>219.6270691195912</v>
       </c>
       <c r="N7" t="n">
-        <v>227.0078323411667</v>
+        <v>219.8943398437892</v>
       </c>
       <c r="O7" t="n">
-        <v>193.5003991721762</v>
+        <v>186.9299374987238</v>
       </c>
       <c r="P7" t="n">
-        <v>141.8147548410606</v>
+        <v>136.1925897970929</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.90732667104136</v>
+        <v>10.01483101409703</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>566.6829634324471</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663306</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627483016</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>624.0623352912685</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2609532.641401423</v>
+        <v>2611293.17170421</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9067090.198612161</v>
+        <v>9067090.198612159</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="D2" t="n">
-        <v>204.346794981326</v>
+        <v>239.807948141505</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415049</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415049</v>
+        <v>72.93385014149894</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.2456440959453</v>
+        <v>120.3448634941109</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W4" t="n">
-        <v>65.19931441381966</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.95782689054337</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.2905114143415</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>290.2905114143415</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2905114143458</v>
+        <v>290.2905114143415</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143458</v>
+        <v>242.9456793794513</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>12.74220307430067</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>242.945679379455</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143458</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>77.13863594636841</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790365</v>
+        <v>15.09724236790412</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>116.3784374999613</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340519</v>
+        <v>12.15545075340563</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>35.23282463612784</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.5031819535273</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>91.47838573532646</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.69811547110072</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>31.10811072719287</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>105.1162657551275</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722629</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.24347904696366</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16281301710843</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462424</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756823919</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>19.91555826188837</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.8757728051418</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>75.21356227238265</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>100.4429877184276</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>180.1003471321693</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>53.82913822150015</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>23.1099832571722</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.295034370324</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180347</v>
+        <v>643.3309862195514</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180347</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="D2" t="n">
-        <v>510.5906378964933</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
-        <v>268.3603872485086</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993051</v>
+        <v>151.9249841743781</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132039</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132039</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605488</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859564</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779391</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948986</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.2476725444251</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180347</v>
+        <v>885.5612368675363</v>
       </c>
     </row>
     <row r="3">
@@ -4397,61 +4397,61 @@
         <v>165.7191938244354</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467734</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303712</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849759</v>
+        <v>403.5193898849761</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376405</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>761.688444206401</v>
+        <v>827.8052238367443</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717336997</v>
+        <v>936.4948513640431</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="W3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="X3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="Y3" t="n">
         <v>816.5594247923373</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.1208187792273</v>
+        <v>486.1505517739562</v>
       </c>
       <c r="C4" t="n">
-        <v>19.18463585132039</v>
+        <v>317.2143688460492</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132039</v>
+        <v>167.0977294337135</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228465</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>245.178035603103</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223408</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584451</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470439</v>
+        <v>890.2534212916895</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456595</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="U4" t="n">
-        <v>717.0015419180347</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="V4" t="n">
-        <v>474.77129127005</v>
+        <v>717.0015419180352</v>
       </c>
       <c r="W4" t="n">
-        <v>408.9133979227574</v>
+        <v>717.0015419180352</v>
       </c>
       <c r="X4" t="n">
-        <v>408.9133979227574</v>
+        <v>706.9431309174863</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.1208187792273</v>
+        <v>486.1505517739562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>622.53963071415</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="C5" t="n">
-        <v>622.53963071415</v>
+        <v>867.9393068550008</v>
       </c>
       <c r="D5" t="n">
-        <v>622.53963071415</v>
+        <v>574.7165680526357</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117805</v>
+        <v>281.4938292502706</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941095</v>
+        <v>36.09415310941062</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951924</v>
+        <v>59.13673382951765</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444947</v>
+        <v>163.7002683444913</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084624</v>
+        <v>330.3223409084569</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162843</v>
+        <v>547.3909387162761</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753702</v>
+        <v>772.5857417536906</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416881</v>
+        <v>971.8955472416743</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171409</v>
+        <v>1107.500854171393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="V5" t="n">
-        <v>915.7623695165196</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="W5" t="n">
-        <v>915.7623695165196</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="X5" t="n">
-        <v>622.53963071415</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="Y5" t="n">
-        <v>622.53963071415</v>
+        <v>1161.162045657366</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730.3005069213373</v>
+        <v>652.3826928340961</v>
       </c>
       <c r="C6" t="n">
-        <v>555.8474776402103</v>
+        <v>477.9296635529691</v>
       </c>
       <c r="D6" t="n">
-        <v>406.913067978959</v>
+        <v>328.9952538917179</v>
       </c>
       <c r="E6" t="n">
-        <v>247.6756129735035</v>
+        <v>169.7577988862623</v>
       </c>
       <c r="F6" t="n">
-        <v>101.1410550003885</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="J6" t="n">
-        <v>68.73762764075389</v>
+        <v>25.79522430508797</v>
       </c>
       <c r="K6" t="n">
-        <v>151.2883816419936</v>
+        <v>235.7315125838765</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6105989476048</v>
+        <v>393.053729889486</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478072</v>
+        <v>595.998205247796</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044675</v>
+        <v>818.7226619044543</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792098</v>
+        <v>1000.252231792083</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313224</v>
+        <v>1126.612649313207</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657383</v>
+        <v>1161.162045657366</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="W6" t="n">
-        <v>1145.912305891824</v>
+        <v>1145.912305891806</v>
       </c>
       <c r="X6" t="n">
-        <v>938.0608056862911</v>
+        <v>1028.358328619118</v>
       </c>
       <c r="Y6" t="n">
-        <v>730.3005069213373</v>
+        <v>820.5980298541642</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.3573374179414</v>
+        <v>354.5542963376381</v>
       </c>
       <c r="C7" t="n">
-        <v>480.4211544900345</v>
+        <v>185.6181134097312</v>
       </c>
       <c r="D7" t="n">
-        <v>330.3045150776988</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="E7" t="n">
-        <v>182.3914214953057</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="F7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="G7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="H7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="I7" t="n">
-        <v>35.50147399739534</v>
+        <v>35.50147399739543</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314767</v>
+        <v>23.22324091314732</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279145</v>
+        <v>133.2846894279135</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993037</v>
+        <v>329.6518852993017</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276985</v>
+        <v>547.0826837276956</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730494</v>
+        <v>764.7780801730455</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967855</v>
+        <v>949.8387182967807</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195907</v>
+        <v>1084.669382195902</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899863</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899863</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899863</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899863</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="U7" t="n">
-        <v>1058.995353146198</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="V7" t="n">
-        <v>1058.995353146198</v>
+        <v>1094.584064899857</v>
       </c>
       <c r="W7" t="n">
-        <v>1058.995353146198</v>
+        <v>984.9848912094253</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0058022481811</v>
+        <v>756.995340311408</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0058022481811</v>
+        <v>536.2027611678778</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>519.5572140912814</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>150.5946971508696</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>150.5946971508696</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>150.5946971508696</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6491964016662</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554031</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>142.86104461962</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656169</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377098</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253739</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637405</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595857</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5317,7 +5317,7 @@
         <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.51519859181</v>
@@ -5360,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443409094</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429991</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.615197557879</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876668</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179066</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706081</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>391.846396042701</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842396</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443782</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>742.431043800848</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6369,13 +6369,13 @@
         <v>483.8760050556313</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>336.9860575577209</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6460,28 +6460,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389278</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>230.2762332904625</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138389</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7566,40 +7566,40 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
         <v>2273.199413378161</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.78462588923537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923516</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763685</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637944</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839804</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506813</v>
+        <v>54.74236624506904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>43.37616498552007</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>128.6722568460101</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>85.29609186049544</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>181.4067325814636</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0033420516642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.27114962946091</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.11969353038882</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012181</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823345</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.22040037418653</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.08115057384121</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9259388694752602</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>86.4655746247237</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610402</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194498</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>45.37941682720927</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057518</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="12">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
@@ -26343,19 +26343,19 @@
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210866</v>
+        <v>55881.32342210392</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276248</v>
+        <v>363279.886627629</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.215472838233304e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>62744.31078353581</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440448</v>
+        <v>12992.59634440339</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666274</v>
+        <v>88656.33991666391</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.660343104</v>
+        <v>246054.6603431053</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828188</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683029</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683014</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="J4" t="n">
         <v>12996.8641468304</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302698</v>
+        <v>65162.40123302663</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317621.5383290625</v>
+        <v>-317621.5383290628</v>
       </c>
       <c r="C6" t="n">
-        <v>289735.0308931869</v>
+        <v>289735.0308931912</v>
       </c>
       <c r="D6" t="n">
-        <v>56664.66284113875</v>
+        <v>56664.66284113453</v>
       </c>
       <c r="E6" t="n">
-        <v>23765.06490236456</v>
+        <v>24077.70623128604</v>
       </c>
       <c r="F6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.147855832</v>
       </c>
       <c r="G6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="H6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.147855832</v>
       </c>
       <c r="I6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="J6" t="n">
-        <v>468506.1957433746</v>
+        <v>468818.8370722958</v>
       </c>
       <c r="K6" t="n">
-        <v>518257.910182506</v>
+        <v>518570.5515114284</v>
       </c>
       <c r="L6" t="n">
-        <v>442594.1666102476</v>
+        <v>442906.8079391678</v>
       </c>
       <c r="M6" t="n">
-        <v>398643.2127979837</v>
+        <v>398955.8541269048</v>
       </c>
       <c r="N6" t="n">
-        <v>531250.5065269106</v>
+        <v>531563.147855832</v>
       </c>
       <c r="O6" t="n">
-        <v>531250.5065269106</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="P6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558318</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.184639007818956e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575574</v>
+        <v>636.9329421575538</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143458</v>
+        <v>290.2905114143415</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,16 +26928,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.51934104779163e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.184639007818956e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949252</v>
+        <v>43.45684181948889</v>
       </c>
       <c r="D3" t="n">
-        <v>297.131949959982</v>
+        <v>297.1319499599853</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284096</v>
+        <v>50.48256327283652</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856929</v>
+        <v>350.2943206856974</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284096</v>
+        <v>50.48256327283652</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856929</v>
+        <v>350.2943206856977</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.51934104779163e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284096</v>
+        <v>50.48256327283652</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856929</v>
+        <v>350.2943206856974</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219756</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295025</v>
       </c>
       <c r="D2" t="n">
-        <v>150.3362466393569</v>
+        <v>114.8750934791779</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307569</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.108955804432</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145487</v>
+        <v>313.3040885145547</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.43705168135904</v>
+        <v>85.33783228319349</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659214</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232315</v>
+        <v>12.32969518232298</v>
       </c>
       <c r="W4" t="n">
-        <v>221.3236839227714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7518284984938</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.98238035666606</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>64.39253020634146</v>
       </c>
       <c r="E5" t="n">
-        <v>91.63985865791597</v>
+        <v>91.63985865792029</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273656</v>
+        <v>163.9303663622601</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>313.251728773572</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401376</v>
+        <v>111.7608855401382</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>150.6718910157317</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493788</v>
@@ -27675,13 +27675,13 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>84.80657909067989</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412322</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>58.83487451106937</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337437</v>
+        <v>99.00406368337444</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370917</v>
+        <v>42.22754232370943</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>146.2358974242412</v>
       </c>
       <c r="T6" t="n">
         <v>194.6426402623424</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>89.39454770351622</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>152.0153623856348</v>
+        <v>152.0153623856349</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>120.9099147197634</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>125.649615444198</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>204.000197215398</v>
       </c>
       <c r="T7" t="n">
         <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>251.0235555785115</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.0198163830637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>320.0693170376275</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>54.72293255183052</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>255.1190433940077</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.705939176177453e-13</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28502,10 +28502,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.854321920461735e-11</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28976,58 +28976,58 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-8.822740717434206e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.844393931507171e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29274,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>-9.003997547551989e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30401,55 +30401,55 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.2624493352627e-14</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.51934104779163e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31047,22 +31047,22 @@
         <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
         <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
         <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
         <v>401.9861157822518</v>
@@ -31074,10 +31074,10 @@
         <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916534</v>
@@ -31126,7 +31126,7 @@
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847383</v>
@@ -31135,16 +31135,16 @@
         <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
         <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
         <v>243.7619099671573</v>
@@ -31153,16 +31153,16 @@
         <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,25 +31202,25 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
         <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714137</v>
@@ -31229,19 +31229,19 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834399</v>
+        <v>2.560534440834386</v>
       </c>
       <c r="H5" t="n">
-        <v>26.2230733421953</v>
+        <v>26.22307334219516</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026829</v>
+        <v>98.71500403026774</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977688</v>
+        <v>217.3221599977676</v>
       </c>
       <c r="K5" t="n">
-        <v>325.709582878289</v>
+        <v>325.7095828782872</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719749</v>
+        <v>404.0715387719726</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341636</v>
+        <v>449.6074431341611</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141843</v>
+        <v>456.8825616141818</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681373</v>
+        <v>431.4212472681349</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260038</v>
+        <v>368.2080532600359</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.508913597656</v>
+        <v>276.5089135976544</v>
       </c>
       <c r="R5" t="n">
-        <v>160.843171569064</v>
+        <v>160.8431715690631</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051394</v>
+        <v>58.34817857051362</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475259</v>
+        <v>11.20873951475253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667519</v>
+        <v>0.2048427552667508</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772859</v>
+        <v>1.370006705772852</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312209</v>
+        <v>13.23138055312202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.1690905277059</v>
+        <v>47.16909052770565</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888297</v>
+        <v>129.435589688829</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756112</v>
+        <v>221.22603897561</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916027</v>
+        <v>297.465710391601</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758687</v>
+        <v>347.1284534758668</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264245</v>
+        <v>356.3159107264225</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511417</v>
+        <v>325.9594463511398</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892051</v>
+        <v>261.6111927892036</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316373</v>
+        <v>174.8801542316363</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473949</v>
+        <v>85.06059178473902</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959673</v>
+        <v>25.44727367959659</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479198</v>
+        <v>5.522088432479167</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663551</v>
+        <v>0.09013202011663501</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611988</v>
+        <v>1.148567600611982</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180478</v>
+        <v>10.21181012180472</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749508</v>
+        <v>34.54056020749489</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326758</v>
+        <v>81.20372936326714</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438292</v>
+        <v>133.4426721438284</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400769</v>
+        <v>170.760677640076</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577502</v>
+        <v>180.0431921577492</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645602</v>
+        <v>175.7621674645592</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846837</v>
+        <v>162.3448095846828</v>
       </c>
       <c r="P7" t="n">
-        <v>138.914030532199</v>
+        <v>138.9140305321982</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579116</v>
+        <v>96.17687426579063</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297176</v>
+        <v>51.64377593297148</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157438</v>
+        <v>20.01640082157427</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705768</v>
+        <v>4.907516111705741</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156309</v>
+        <v>0.06264914185156274</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912037</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817565</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>468.9317632522988</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
         <v>181.310440762227</v>
@@ -34792,13 +34792,13 @@
         <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>227.9081740394986</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612551</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>69.67512249932382</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108252</v>
+        <v>36.27625547108133</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333084</v>
+        <v>105.6197318333067</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019876</v>
+        <v>168.3051238019854</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068909</v>
+        <v>219.2612099068884</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175934</v>
+        <v>227.4694980175909</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464506</v>
+        <v>201.3230358464482</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047684</v>
+        <v>136.9750575047664</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320649</v>
+        <v>54.20322372320496</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.97412800768306</v>
+        <v>2.597963022162276</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125224</v>
+        <v>212.0568568472611</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117285</v>
+        <v>158.9113306117268</v>
       </c>
       <c r="M6" t="n">
-        <v>290.2905114143458</v>
+        <v>204.9944195538485</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430912</v>
+        <v>224.9741986430892</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066972</v>
+        <v>183.3632019066954</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748748</v>
+        <v>127.6367853748733</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561576</v>
+        <v>34.89838014561479</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179463</v>
+        <v>111.1731803179456</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003931</v>
+        <v>198.3507029003922</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195907</v>
+        <v>219.6270691195897</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437887</v>
+        <v>219.8943398437878</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987233</v>
+        <v>186.9299374987225</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970925</v>
+        <v>136.1925897970917</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409677</v>
+        <v>10.01483101409625</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691854</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367759</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>330.3773834724246</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
